--- a/biology/Médecine/Inion/Inion.xlsx
+++ b/biology/Médecine/Inion/Inion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inion est le point anthropométrique et craniométrique situé au sommet de la protubérance occipitale externe. Il est situé à l'union des lignes nuchales supérieures droite et gauche.
 C'est le point le plus proéminent de l'os occipital, dans la partie inférieure de l'arrière du crâne. C'est un point craniométrique utilisé en anthropologie physique et en paléoanthropologie.
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Inion » est le mot grec pour désigner l'os occipital.
 </t>
